--- a/cdk_template_v4.xlsx
+++ b/cdk_template_v4.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\EICAA_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khant/Documents/GitHub/cdk2json/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E060387-26FF-F64F-8BD2-4CF91E172051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CDKmodules" sheetId="1" r:id="rId1"/>
@@ -21,17 +22,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -4319,14 +4309,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">PLANNING AND MANAGEMENT:                                                                                                                                          (1) I can define clear and achievable goals related to a simple business idea.
-(2) I can carry out a simple plan for the activities to create a valuable business.
-(3) I can explain the difference between urgent and important goals when stating the priority of given tasks.
-                                                                                                                                                                                                       VISION:                                                                                                                                                                                                (4) I can identify the clear business concept guiding strategic thinking.
-(5) I can identify the guidelines required to make an idea actionable.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">No ECTS
 Workload ~90 minutes
 </t>
@@ -4420,14 +4402,6 @@
 </t>
   </si>
   <si>
-    <t>PLANNING AND MANAGEMENT:                                                                                                                                          (1) I can create an action plan with the different steps to achieve my goals.
-(2) I can set my own priorities and define and priorities the tasks accordingly.
-(3) I can define a business model that has all the elements to deliver the value I have identified: identification of users, value provided, competitors’ analysis, strategic partnerships, etc.
-                                                                                                                                                                                                WORKING WITH OTHERS:                                                                                                                                                            (4) I can select a team of people who can work together in implementing a business idea.
-(5) I can establish new relationships to get the support needed to turn ideas into action, including emotional support (for example, joining a mentor network).
-(6) I am effective at networking with new contacts as well as building strong ties with existing contacts.</t>
-  </si>
-  <si>
     <t>No ECTS, ~4 hours</t>
   </si>
   <si>
@@ -4484,18 +4458,6 @@
   </si>
   <si>
     <t>19 March 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLANNING AND MANAGEMENT:                                                                                                                                          (1) I can apply the basics of project management in managing tasks to create value. 
-(2) I can define and prioritize the relevant steps to complete the tasks in time.
-(3) I can develop a business plan based on the model, describing how to achieve the value identified with aspects such as marketing plans, operations, finance plan, etc.
-(4) I am aware of which elements of the business plan will convince different stakeholders (investors, banks, clients) and can curate those based on the need and audience.
-(5) I am able to accept new directions of the business idea as new stakeholders get on board.
-                                                                                                                                                                                                   WORKING WITH OTHERS:                                                                                                                                                        (6) I can support diversity within my team or organization.
-(7) I can put in place strategies to actively listen to my end users and act on their (implicit and explicit) needs.
-(8) I can compose the best team for a project based on the individual knowledge, skills, and attitudes of each member so that the team is balanced (has complementary skills) for the value-creating activity.
-(9) I can structure a team by identifying roles and tasks to achieve the goals of the business idea.
-</t>
   </si>
   <si>
     <t>Supervised online or onsite with identity verification.</t>
@@ -5219,11 +5181,43 @@
 Advanced: To make this exercise more challenging, you can introduce distractions or barriers to communication. For example, you could have the speaker wear a mask or listen to music while speaking, or you could introduce background noise or other distractions to simulate a noisy environment. This will require the listener to demonstrate even greater focus and attention to fully engage with the speaker.</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">PLANNING AND MANAGEMENT:  
+(1) I can define clear and achievable goals related to a simple business idea.
+(2) I can carry out a simple plan for the activities to create a valuable business.
+(3) I can explain the difference between urgent and important goals when stating the priority of given tasks.
+VISION:                                                                                                                                                                                                (4) I can identify the clear business concept guiding strategic thinking.
+(5) I can identify the guidelines required to make an idea actionable.
+</t>
+  </si>
+  <si>
+    <t>PLANNING AND MANAGEMENT: 
+(1) I can create an action plan with the different steps to achieve my goals.
+(2) I can set my own priorities and define and priorities the tasks accordingly.
+(3) I can define a business model that has all the elements to deliver the value I have identified: identification of users, value provided, competitors’ analysis, strategic partnerships, etc.
+WORKING WITH OTHERS: 
+(4) I can select a team of people who can work together in implementing a business idea.
+(5) I can establish new relationships to get the support needed to turn ideas into action, including emotional support (for example, joining a mentor network).
+(6) I am effective at networking with new contacts as well as building strong ties with existing contacts.</t>
+  </si>
+  <si>
+    <t>PLANNING AND MANAGEMENT:  
+ (1) I can apply the basics of project management in managing tasks to create value. 
+(2) I can define and prioritize the relevant steps to complete the tasks in time.
+(3) I can develop a business plan based on the model, describing how to achieve the value identified with aspects such as marketing plans, operations, finance plan, etc.
+(4) I am aware of which elements of the business plan will convince different stakeholders (investors, banks, clients) and can curate those based on the need and audience.
+(5) I am able to accept new directions of the business idea as new stakeholders get on board.
+                                                                                                                                                                                                   WORKING WITH OTHERS:
+(6) I can support diversity within my team or organization.
+(7) I can put in place strategies to actively listen to my end users and act on their (implicit and explicit) needs.
+(8) I can compose the best team for a project based on the individual knowledge, skills, and attitudes of each member so that the team is balanced (has complementary skills) for the value-creating activity.
+(9) I can structure a team by identifying roles and tasks to achieve the goals of the business idea.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5423,7 +5417,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5525,47 +5519,28 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="31">
     <dxf>
@@ -6019,43 +5994,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:AC56" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
-  <sortState ref="A2:AC56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:AC56" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC56">
     <sortCondition ref="F2"/>
   </sortState>
   <tableColumns count="29">
-    <tableColumn id="1" name="competence ID" dataDxfId="28"/>
-    <tableColumn id="14" name="competence" dataDxfId="27"/>
-    <tableColumn id="11" name="author" dataDxfId="26"/>
-    <tableColumn id="12" name="institution" dataDxfId="25"/>
-    <tableColumn id="5" name="country of the issuer" dataDxfId="24"/>
-    <tableColumn id="13" name="date of issuing" dataDxfId="23"/>
-    <tableColumn id="17" name="target group" dataDxfId="22"/>
-    <tableColumn id="18" name="proficiency level" dataDxfId="21"/>
-    <tableColumn id="3" name="additional text proficiency levels" dataDxfId="20"/>
-    <tableColumn id="2" name="module name" dataDxfId="19"/>
-    <tableColumn id="15" name="module description" dataDxfId="18"/>
-    <tableColumn id="4" name="learning outcomes" dataDxfId="17">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="competence ID" dataDxfId="28"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="competence" dataDxfId="27"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="author" dataDxfId="26"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="institution" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="country of the issuer" dataDxfId="24"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="date of issuing" dataDxfId="23"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="target group" dataDxfId="22"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="proficiency level" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="additional text proficiency levels" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="module name" dataDxfId="19"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="module description" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="learning outcomes" dataDxfId="17">
       <calculatedColumnFormula>- I can find examples of failures that have led to valuable achievements and the creation of value.
 - Anticipate that my abilities and competence will grow with Tabelle1[[#This Row],[module description]] through both successes and failures.</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="workload" dataDxfId="16"/>
-    <tableColumn id="6" name="assessment" dataDxfId="15"/>
-    <tableColumn id="28" name="supervision of assessment" dataDxfId="14"/>
-    <tableColumn id="29" name="quality assurance" dataDxfId="13"/>
-    <tableColumn id="7" name="format" dataDxfId="12"/>
-    <tableColumn id="19" name="instructor manual " dataDxfId="11"/>
-    <tableColumn id="8" name="resources educators and business trainers" dataDxfId="10"/>
-    <tableColumn id="9" name="resources for participants" dataDxfId="9"/>
-    <tableColumn id="20" name="external/additional material" dataDxfId="8"/>
-    <tableColumn id="10" name="additional competences" dataDxfId="7"/>
-    <tableColumn id="26" name="additional competences 2" dataDxfId="6"/>
-    <tableColumn id="25" name="additional competences 3" dataDxfId="5"/>
-    <tableColumn id="24" name="additional competences 4" dataDxfId="4"/>
-    <tableColumn id="23" name="additional competences 5" dataDxfId="3"/>
-    <tableColumn id="22" name="additional competences 6" dataDxfId="2"/>
-    <tableColumn id="21" name="additional competences 7" dataDxfId="1"/>
-    <tableColumn id="27" name="additional competences 8" dataDxfId="0"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="workload" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="assessment" dataDxfId="15"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="supervision of assessment" dataDxfId="14"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="quality assurance" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="format" dataDxfId="12"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="instructor manual " dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="resources educators and business trainers" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="resources for participants" dataDxfId="9"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="external/additional material" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="additional competences" dataDxfId="7"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="additional competences 2" dataDxfId="6"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="additional competences 3" dataDxfId="5"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="additional competences 4" dataDxfId="4"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="additional competences 5" dataDxfId="3"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="additional competences 6" dataDxfId="2"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="additional competences 7" dataDxfId="1"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="additional competences 8" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6323,40 +6298,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="52" zoomScaleNormal="30" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="44.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="44.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="26" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="35.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="46.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="65.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="77.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="35.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="46.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="65.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="77.83203125" style="1" customWidth="1"/>
     <col min="13" max="13" width="40" style="1" customWidth="1"/>
-    <col min="14" max="14" width="61.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="31.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="61.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="31.5" style="1" customWidth="1"/>
     <col min="16" max="16" width="32" style="1" customWidth="1"/>
-    <col min="17" max="17" width="38.28515625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="96.85546875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="40.85546875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="41.85546875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="32.85546875" style="1" customWidth="1"/>
-    <col min="22" max="26" width="19.28515625" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="11.42578125" style="1"/>
+    <col min="17" max="17" width="38.33203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="96.83203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="40.83203125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="41.83203125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="32.83203125" style="1" customWidth="1"/>
+    <col min="22" max="26" width="19.33203125" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>56</v>
       </c>
@@ -6596,66 +6571,66 @@
       <c r="AC3" s="16"/>
     </row>
     <row r="4" spans="1:29" ht="285.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="F4" s="37">
+      <c r="F4" s="5">
         <v>2022</v>
       </c>
-      <c r="G4" s="37" t="s">
+      <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="37" t="s">
+      <c r="H4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="47"/>
-      <c r="J4" s="37" t="s">
+      <c r="I4" s="41"/>
+      <c r="J4" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="K4" s="37" t="s">
+      <c r="K4" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="L4" s="37" t="s">
+      <c r="L4" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="M4" s="37" t="s">
+      <c r="M4" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="N4" s="37" t="s">
+      <c r="N4" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="O4" s="37" t="s">
+      <c r="O4" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="P4" s="37" t="s">
+      <c r="P4" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="Q4" s="37" t="s">
+      <c r="Q4" s="5" t="s">
         <v>270</v>
       </c>
       <c r="R4" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="S4" s="37" t="s">
+      <c r="S4" s="5" t="s">
         <v>273</v>
       </c>
       <c r="T4" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
       <c r="W4" s="16"/>
       <c r="X4" s="16"/>
       <c r="Y4" s="16"/>
@@ -6665,70 +6640,70 @@
       <c r="AC4" s="16"/>
     </row>
     <row r="5" spans="1:29" ht="306.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="5">
         <v>2020</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="37" t="s">
+      <c r="H5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="37" t="s">
+      <c r="I5" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="K5" s="37" t="s">
+      <c r="K5" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="L5" s="37" t="s">
+      <c r="L5" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="M5" s="37" t="s">
+      <c r="M5" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="N5" s="37" t="s">
+      <c r="N5" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="O5" s="37" t="s">
+      <c r="O5" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="P5" s="37" t="s">
+      <c r="P5" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="Q5" s="37" t="s">
+      <c r="Q5" s="5" t="s">
         <v>257</v>
       </c>
       <c r="R5" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="S5" s="37" t="s">
+      <c r="S5" s="5" t="s">
         <v>249</v>
       </c>
       <c r="T5" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="U5" s="37" t="s">
+      <c r="U5" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="V5" s="37" t="s">
+      <c r="V5" s="5" t="s">
         <v>252</v>
       </c>
       <c r="W5" s="16"/>
@@ -6740,7 +6715,7 @@
       <c r="AC5" s="16"/>
     </row>
     <row r="6" spans="1:29" ht="306.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="5" t="s">
         <v>274</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -6895,12 +6870,12 @@
       <c r="Y7" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="Z7" s="37" t="s">
+      <c r="Z7" s="5" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="306.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="5" t="s">
         <v>295</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -6975,7 +6950,7 @@
       <c r="Y8" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="Z8" s="37" t="s">
+      <c r="Z8" s="5" t="s">
         <v>290</v>
       </c>
     </row>
@@ -7263,7 +7238,7 @@
       <c r="H13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I13" s="37" t="s">
+      <c r="I13" s="5" t="s">
         <v>312</v>
       </c>
       <c r="J13" s="5" t="s">
@@ -7368,10 +7343,10 @@
       </c>
     </row>
     <row r="15" spans="1:29" ht="306.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="5" t="s">
         <v>324</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -7419,19 +7394,19 @@
       <c r="Q15" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="R15" s="37" t="s">
+      <c r="R15" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="S15" s="37" t="s">
+      <c r="S15" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="T15" s="37" t="s">
+      <c r="T15" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="U15" s="37" t="s">
+      <c r="U15" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="V15" s="37" t="s">
+      <c r="V15" s="5" t="s">
         <v>235</v>
       </c>
       <c r="W15" s="5" t="s">
@@ -7457,7 +7432,7 @@
       </c>
     </row>
     <row r="16" spans="1:29" ht="306.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="5" t="s">
         <v>342</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -8370,68 +8345,66 @@
       </c>
     </row>
     <row r="29" spans="1:29" ht="306.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="D29" s="37" t="s">
+      <c r="D29" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="E29" s="37" t="s">
+      <c r="E29" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="F29" s="37" t="s">
+      <c r="F29" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="G29" s="37" t="s">
+      <c r="G29" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="37" t="s">
+      <c r="H29" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I29" s="37" t="s">
+      <c r="I29" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="J29" s="41" t="s">
+      <c r="J29" s="21" t="s">
         <v>441</v>
       </c>
-      <c r="K29" s="37" t="s">
+      <c r="K29" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="L29" s="37" t="s">
+      <c r="L29" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="M29" s="37" t="s">
+      <c r="M29" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="N29" s="37" t="s">
+      <c r="N29" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="O29" s="41" t="s">
+      <c r="O29" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="P29" s="37" t="s">
+      <c r="P29" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="Q29" s="37" t="s">
+      <c r="Q29" s="5" t="s">
         <v>434</v>
       </c>
       <c r="R29" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="S29" s="37" t="s">
+      <c r="S29" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="T29" s="37" t="s">
+      <c r="T29" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="U29" s="40"/>
-      <c r="V29" s="40"/>
     </row>
     <row r="30" spans="1:29" ht="306.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
@@ -8588,7 +8561,7 @@
       <c r="J32" s="21" t="s">
         <v>480</v>
       </c>
-      <c r="K32" s="37" t="s">
+      <c r="K32" s="5" t="s">
         <v>481</v>
       </c>
       <c r="L32" s="5" t="s">
@@ -8597,10 +8570,10 @@
       <c r="M32" s="27" t="s">
         <v>483</v>
       </c>
-      <c r="N32" s="37" t="s">
+      <c r="N32" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="O32" s="41" t="s">
+      <c r="O32" s="21" t="s">
         <v>245</v>
       </c>
       <c r="P32" s="21" t="s">
@@ -8631,16 +8604,16 @@
         <v>406</v>
       </c>
       <c r="C33" s="36" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D33" s="36" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E33" s="36" t="s">
         <v>58</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>5</v>
@@ -8648,55 +8621,54 @@
       <c r="H33" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I33" s="40"/>
-      <c r="J33" s="38" t="s">
+      <c r="J33" s="36" t="s">
         <v>406</v>
       </c>
-      <c r="K33" s="39" t="s">
+      <c r="K33" s="37" t="s">
+        <v>593</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="M33" s="36" t="s">
+        <v>594</v>
+      </c>
+      <c r="N33" s="37" t="s">
+        <v>595</v>
+      </c>
+      <c r="O33" s="38" t="s">
         <v>596</v>
       </c>
-      <c r="L33" s="40" t="s">
-        <v>602</v>
-      </c>
-      <c r="M33" s="38" t="s">
+      <c r="P33" s="36" t="s">
         <v>597</v>
       </c>
-      <c r="N33" s="39" t="s">
+      <c r="Q33" s="36" t="s">
         <v>598</v>
       </c>
-      <c r="O33" s="42" t="s">
-        <v>599</v>
-      </c>
-      <c r="P33" s="36" t="s">
-        <v>600</v>
-      </c>
-      <c r="Q33" s="36" t="s">
-        <v>601</v>
-      </c>
       <c r="R33" s="1" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="S33" s="28"/>
       <c r="T33" s="28"/>
     </row>
     <row r="34" spans="1:29" ht="306.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="B34" s="37" t="s">
+      <c r="B34" s="5" t="s">
         <v>406</v>
       </c>
       <c r="C34" s="36" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D34" s="36" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E34" s="36" t="s">
         <v>58</v>
       </c>
       <c r="F34" s="36" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>5</v>
@@ -8704,38 +8676,38 @@
       <c r="H34" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I34" s="37"/>
-      <c r="J34" s="38" t="s">
+      <c r="I34" s="5"/>
+      <c r="J34" s="36" t="s">
         <v>406</v>
       </c>
-      <c r="K34" s="39" t="s">
+      <c r="K34" s="37" t="s">
+        <v>593</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="M34" s="36" t="s">
+        <v>594</v>
+      </c>
+      <c r="N34" s="37" t="s">
+        <v>595</v>
+      </c>
+      <c r="O34" s="38" t="s">
         <v>596</v>
       </c>
-      <c r="L34" s="37" t="s">
-        <v>603</v>
-      </c>
-      <c r="M34" s="38" t="s">
+      <c r="P34" s="36" t="s">
         <v>597</v>
       </c>
-      <c r="N34" s="39" t="s">
+      <c r="Q34" s="36" t="s">
         <v>598</v>
       </c>
-      <c r="O34" s="42" t="s">
-        <v>599</v>
-      </c>
-      <c r="P34" s="36" t="s">
-        <v>600</v>
-      </c>
-      <c r="Q34" s="36" t="s">
-        <v>601</v>
-      </c>
-      <c r="R34" s="37" t="s">
-        <v>605</v>
-      </c>
-      <c r="S34" s="37"/>
-      <c r="T34" s="49"/>
-      <c r="U34" s="49"/>
-      <c r="V34" s="37"/>
+      <c r="R34" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="S34" s="5"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="5"/>
       <c r="W34" s="5"/>
       <c r="X34" s="5"/>
       <c r="Y34" s="5"/>
@@ -8745,62 +8717,62 @@
       <c r="AC34" s="5"/>
     </row>
     <row r="35" spans="1:29" ht="306.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="C35" s="38" t="s">
-        <v>592</v>
-      </c>
-      <c r="D35" s="38" t="s">
+      <c r="C35" s="36" t="s">
+        <v>589</v>
+      </c>
+      <c r="D35" s="36" t="s">
+        <v>590</v>
+      </c>
+      <c r="E35" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" s="36" t="s">
+        <v>591</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35" s="5"/>
+      <c r="J35" s="36" t="s">
+        <v>406</v>
+      </c>
+      <c r="K35" s="37" t="s">
         <v>593</v>
       </c>
-      <c r="E35" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="F35" s="38" t="s">
-        <v>594</v>
-      </c>
-      <c r="G35" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="I35" s="37"/>
-      <c r="J35" s="38" t="s">
-        <v>406</v>
-      </c>
-      <c r="K35" s="39" t="s">
+      <c r="L35" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="M35" s="36" t="s">
+        <v>601</v>
+      </c>
+      <c r="N35" s="37" t="s">
+        <v>595</v>
+      </c>
+      <c r="O35" s="38" t="s">
         <v>596</v>
       </c>
-      <c r="L35" s="37" t="s">
-        <v>606</v>
-      </c>
-      <c r="M35" s="38" t="s">
+      <c r="P35" s="36" t="s">
+        <v>597</v>
+      </c>
+      <c r="Q35" s="36" t="s">
+        <v>598</v>
+      </c>
+      <c r="R35" s="5" t="s">
         <v>604</v>
       </c>
-      <c r="N35" s="39" t="s">
-        <v>598</v>
-      </c>
-      <c r="O35" s="42" t="s">
-        <v>599</v>
-      </c>
-      <c r="P35" s="38" t="s">
-        <v>600</v>
-      </c>
-      <c r="Q35" s="38" t="s">
-        <v>601</v>
-      </c>
-      <c r="R35" s="5" t="s">
-        <v>607</v>
-      </c>
-      <c r="S35" s="37"/>
-      <c r="T35" s="49"/>
-      <c r="U35" s="49"/>
-      <c r="V35" s="37"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="23"/>
+      <c r="U35" s="23"/>
+      <c r="V35" s="5"/>
       <c r="W35" s="5"/>
       <c r="X35" s="5"/>
       <c r="Y35" s="5"/>
@@ -8810,7 +8782,7 @@
       <c r="AC35" s="5"/>
     </row>
     <row r="36" spans="1:29" ht="306.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="37" t="s">
+      <c r="A36" s="5" t="s">
         <v>492</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -9088,7 +9060,7 @@
       <c r="Y39" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="Z39" s="37" t="s">
+      <c r="Z39" s="5" t="s">
         <v>186</v>
       </c>
       <c r="AA39" s="5" t="s">
@@ -9098,7 +9070,7 @@
       <c r="AC39" s="5"/>
     </row>
     <row r="40" spans="1:29" ht="306.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="37" t="s">
+      <c r="A40" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -9268,10 +9240,10 @@
       <c r="AC41" s="5"/>
     </row>
     <row r="42" spans="1:29" ht="306.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="37" t="s">
+      <c r="A42" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="B42" s="37" t="s">
+      <c r="B42" s="5" t="s">
         <v>193</v>
       </c>
       <c r="C42" s="5" t="s">
@@ -9292,61 +9264,54 @@
       <c r="H42" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I42" s="37"/>
-      <c r="J42" s="41" t="s">
+      <c r="I42" s="5"/>
+      <c r="J42" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="K42" s="37" t="s">
+      <c r="K42" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="L42" s="37" t="s">
+      <c r="L42" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="M42" s="5" t="s">
         <v>525</v>
-      </c>
-      <c r="M42" s="5" t="s">
-        <v>526</v>
       </c>
       <c r="N42" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="O42" s="41" t="s">
+      <c r="O42" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="P42" s="41" t="s">
-        <v>527</v>
+      <c r="P42" s="21" t="s">
+        <v>526</v>
       </c>
       <c r="Q42" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="R42" s="37" t="s">
+      <c r="R42" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="S42" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="S42" s="37" t="s">
+      <c r="T42" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="T42" s="37" t="s">
-        <v>530</v>
-      </c>
-      <c r="U42" s="49"/>
-      <c r="V42" s="37" t="s">
+      <c r="U42" s="23"/>
+      <c r="V42" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="W42" s="40"/>
-      <c r="X42" s="40"/>
-      <c r="Y42" s="40"/>
-      <c r="Z42" s="40"/>
-      <c r="AA42" s="40"/>
-      <c r="AB42" s="40"/>
-      <c r="AC42" s="40"/>
     </row>
     <row r="43" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="24" t="s">
+        <v>530</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>531</v>
-      </c>
-      <c r="B43" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>532</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>237</v>
@@ -9355,7 +9320,7 @@
         <v>238</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>522</v>
@@ -9363,54 +9328,54 @@
       <c r="H43" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I43" s="37" t="s">
+      <c r="I43" s="5" t="s">
         <v>451</v>
       </c>
       <c r="J43" s="21" t="s">
+        <v>533</v>
+      </c>
+      <c r="K43" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="K43" s="5" t="s">
+      <c r="L43" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="M43" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="L43" s="5" t="s">
+      <c r="N43" s="5" t="s">
         <v>536</v>
-      </c>
-      <c r="M43" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="N43" s="5" t="s">
-        <v>538</v>
       </c>
       <c r="O43" s="21" t="s">
         <v>91</v>
       </c>
       <c r="P43" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q43" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="R43" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="Q43" s="5" t="s">
+      <c r="S43" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="R43" s="37" t="s">
+      <c r="T43" s="23"/>
+      <c r="U43" s="23"/>
+      <c r="V43" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="S43" s="37" t="s">
-        <v>542</v>
-      </c>
-      <c r="T43" s="49"/>
-      <c r="U43" s="49"/>
-      <c r="V43" s="37" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" ht="409.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="37" t="s">
-        <v>543</v>
-      </c>
-      <c r="B44" s="37" t="s">
+      <c r="B44" s="5" t="s">
         <v>193</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>237</v>
@@ -9419,7 +9384,7 @@
         <v>238</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>522</v>
@@ -9431,240 +9396,221 @@
         <v>451</v>
       </c>
       <c r="J44" s="21" t="s">
+        <v>533</v>
+      </c>
+      <c r="K44" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="K44" s="5" t="s">
+      <c r="L44" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="M44" s="27" t="s">
         <v>535</v>
       </c>
-      <c r="L44" s="5" t="s">
+      <c r="N44" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="O44" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="P44" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q44" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="R44" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="M44" s="27" t="s">
-        <v>537</v>
-      </c>
-      <c r="N44" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="O44" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="P44" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="Q44" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="R44" s="37" t="s">
-        <v>548</v>
-      </c>
-      <c r="S44" s="48" t="s">
-        <v>547</v>
-      </c>
-      <c r="T44" s="49"/>
-      <c r="U44" s="49"/>
-      <c r="V44" s="37" t="s">
+      <c r="S44" s="20" t="s">
+        <v>544</v>
+      </c>
+      <c r="T44" s="23"/>
+      <c r="U44" s="23"/>
+      <c r="V44" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:29" s="5" customFormat="1" ht="371.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="37" t="s">
-        <v>549</v>
-      </c>
-      <c r="B45" s="37" t="s">
-        <v>550</v>
+      <c r="A45" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>547</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E45" s="35" t="s">
         <v>58</v>
       </c>
       <c r="F45" s="35" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="G45" s="35" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I45" s="37"/>
-      <c r="J45" s="43" t="s">
-        <v>550</v>
-      </c>
-      <c r="K45" s="44" t="s">
+      <c r="J45" s="39" t="s">
+        <v>547</v>
+      </c>
+      <c r="K45" s="40" t="s">
+        <v>605</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="M45" s="35" t="s">
+        <v>607</v>
+      </c>
+      <c r="N45" s="35" t="s">
+        <v>622</v>
+      </c>
+      <c r="O45" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="P45" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="Q45" s="36" t="s">
+        <v>598</v>
+      </c>
+      <c r="R45" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="L45" s="37" t="s">
+      <c r="S45" s="41"/>
+      <c r="T45" s="23"/>
+      <c r="U45" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="M45" s="45" t="s">
-        <v>610</v>
-      </c>
-      <c r="N45" s="45" t="s">
-        <v>625</v>
-      </c>
-      <c r="O45" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="P45" s="37" t="s">
-        <v>600</v>
-      </c>
-      <c r="Q45" s="36" t="s">
-        <v>601</v>
-      </c>
-      <c r="R45" s="37" t="s">
-        <v>611</v>
-      </c>
-      <c r="S45" s="47"/>
-      <c r="T45" s="49"/>
-      <c r="U45" s="37" t="s">
-        <v>612</v>
-      </c>
-      <c r="V45" s="37"/>
-      <c r="W45" s="37"/>
-      <c r="X45" s="37"/>
-      <c r="Y45" s="37"/>
-      <c r="Z45" s="37"/>
-      <c r="AA45" s="37"/>
-      <c r="AB45" s="37"/>
-      <c r="AC45" s="37"/>
     </row>
-    <row r="46" spans="1:29" s="5" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:29" s="5" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C46" s="35" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D46" s="35" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E46" s="35" t="s">
         <v>58</v>
       </c>
       <c r="F46" s="35" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="G46" s="35" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I46" s="37"/>
-      <c r="J46" s="43" t="s">
-        <v>550</v>
+      <c r="J46" s="39" t="s">
+        <v>547</v>
       </c>
       <c r="K46" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="M46" s="39" t="s">
+        <v>612</v>
+      </c>
+      <c r="N46" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="O46" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="P46" s="5" t="s">
         <v>613</v>
       </c>
-      <c r="L46" s="37" t="s">
+      <c r="Q46" s="36" t="s">
+        <v>598</v>
+      </c>
+      <c r="R46" s="5" t="s">
         <v>614</v>
       </c>
-      <c r="M46" s="43" t="s">
+      <c r="S46" s="20" t="s">
         <v>615</v>
-      </c>
-      <c r="N46" s="37" t="s">
-        <v>624</v>
-      </c>
-      <c r="O46" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="P46" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="Q46" s="36" t="s">
-        <v>601</v>
-      </c>
-      <c r="R46" s="5" t="s">
-        <v>617</v>
-      </c>
-      <c r="S46" s="20" t="s">
-        <v>618</v>
       </c>
       <c r="T46" s="23"/>
       <c r="U46" s="5" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
-    <row r="47" spans="1:29" s="5" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="37" t="s">
-        <v>552</v>
-      </c>
-      <c r="B47" s="37" t="s">
-        <v>550</v>
+    <row r="47" spans="1:29" s="5" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>547</v>
       </c>
       <c r="C47" s="35" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D47" s="35" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E47" s="35" t="s">
         <v>58</v>
       </c>
       <c r="F47" s="35" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="G47" s="35" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I47" s="37"/>
-      <c r="J47" s="43" t="s">
-        <v>550</v>
-      </c>
-      <c r="K47" s="37" t="s">
+      <c r="J47" s="39" t="s">
+        <v>547</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="M47" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="N47" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="L47" s="37" t="s">
-        <v>621</v>
-      </c>
-      <c r="M47" s="46" t="s">
-        <v>622</v>
-      </c>
-      <c r="N47" s="37" t="s">
+      <c r="O47" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="P47" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q47" s="36" t="s">
+        <v>598</v>
+      </c>
+      <c r="R47" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="O47" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="P47" s="37" t="s">
+      <c r="S47" s="20" t="s">
+        <v>615</v>
+      </c>
+      <c r="T47" s="23"/>
+      <c r="U47" s="5" t="s">
         <v>616</v>
       </c>
-      <c r="Q47" s="36" t="s">
-        <v>601</v>
-      </c>
-      <c r="R47" s="37" t="s">
-        <v>626</v>
-      </c>
-      <c r="S47" s="48" t="s">
-        <v>618</v>
-      </c>
-      <c r="T47" s="49"/>
-      <c r="U47" s="37" t="s">
-        <v>619</v>
-      </c>
-      <c r="V47" s="37"/>
-      <c r="W47" s="37"/>
-      <c r="X47" s="37"/>
-      <c r="Y47" s="37"/>
-      <c r="Z47" s="37"/>
-      <c r="AA47" s="37"/>
-      <c r="AB47" s="37"/>
-      <c r="AC47" s="37"/>
     </row>
-    <row r="48" spans="1:29" s="5" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="37" t="s">
+    <row r="48" spans="1:29" s="5" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B48" s="5" t="s">
@@ -9725,9 +9671,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="1:35" s="5" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="37" t="s">
-        <v>582</v>
+    <row r="49" spans="1:35" s="5" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>579</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>9</v>
@@ -9751,41 +9697,41 @@
         <v>2</v>
       </c>
       <c r="J49" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="L49" s="33" t="s">
+        <v>582</v>
+      </c>
+      <c r="M49" s="5" t="s">
         <v>583</v>
-      </c>
-      <c r="K49" s="5" t="s">
-        <v>584</v>
-      </c>
-      <c r="L49" s="33" t="s">
-        <v>585</v>
-      </c>
-      <c r="M49" s="5" t="s">
-        <v>586</v>
       </c>
       <c r="O49" s="5" t="s">
         <v>14</v>
       </c>
       <c r="P49" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="Q49" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="R49" s="34" t="s">
+        <v>586</v>
+      </c>
+      <c r="S49" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="Q49" s="5" t="s">
+      <c r="T49" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="R49" s="34" t="s">
-        <v>589</v>
-      </c>
-      <c r="S49" s="5" t="s">
-        <v>590</v>
-      </c>
-      <c r="T49" s="5" t="s">
-        <v>591</v>
-      </c>
     </row>
-    <row r="50" spans="1:35" s="5" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="37" t="s">
+    <row r="50" spans="1:35" s="5" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="37" t="s">
+      <c r="B50" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C50" s="5" t="s">
@@ -9806,7 +9752,6 @@
       <c r="H50" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I50" s="37"/>
       <c r="J50" s="5" t="s">
         <v>120</v>
       </c>
@@ -9831,7 +9776,7 @@
       <c r="Q50" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="R50" s="51" t="s">
+      <c r="R50" s="42" t="s">
         <v>211</v>
       </c>
       <c r="S50" s="17" t="s">
@@ -9845,7 +9790,7 @@
       </c>
       <c r="V50" s="17"/>
     </row>
-    <row r="51" spans="1:35" s="5" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:35" s="5" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>27</v>
       </c>
@@ -9911,12 +9856,12 @@
       <c r="W51" s="1"/>
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
-      <c r="Z51" s="40"/>
+      <c r="Z51" s="1"/>
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
       <c r="AC51" s="1"/>
     </row>
-    <row r="52" spans="1:35" s="5" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:35" s="5" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>28</v>
       </c>
@@ -9988,15 +9933,9 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
       <c r="AC52" s="1"/>
-      <c r="AD52" s="37"/>
-      <c r="AE52" s="37"/>
-      <c r="AF52" s="37"/>
-      <c r="AG52" s="37"/>
-      <c r="AH52" s="37"/>
-      <c r="AI52" s="37"/>
     </row>
     <row r="53" spans="1:35" s="17" customFormat="1" ht="149.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="40" t="s">
+      <c r="A53" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -10065,14 +10004,14 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
       <c r="AC53" s="1"/>
-      <c r="AD53" s="37"/>
-      <c r="AE53" s="37"/>
-      <c r="AF53" s="37"/>
-      <c r="AG53" s="37"/>
-      <c r="AH53" s="37"/>
-      <c r="AI53" s="37"/>
+      <c r="AD53" s="5"/>
+      <c r="AE53" s="5"/>
+      <c r="AF53" s="5"/>
+      <c r="AG53" s="5"/>
+      <c r="AH53" s="5"/>
+      <c r="AI53" s="5"/>
     </row>
-    <row r="54" spans="1:35" s="37" customFormat="1" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35" s="5" customFormat="1" ht="149.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>30</v>
       </c>
@@ -10147,69 +10086,69 @@
       <c r="AB54" s="1"/>
       <c r="AC54" s="1"/>
     </row>
-    <row r="55" spans="1:35" s="37" customFormat="1" ht="149.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="40" t="s">
+    <row r="55" spans="1:35" s="5" customFormat="1" ht="149.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B55" s="40" t="s">
+      <c r="B55" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="40" t="s">
+      <c r="C55" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D55" s="40" t="s">
+      <c r="D55" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E55" s="40" t="s">
+      <c r="E55" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F55" s="40" t="s">
+      <c r="F55" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G55" s="40" t="s">
+      <c r="G55" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H55" s="40" t="s">
+      <c r="H55" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I55" s="40"/>
-      <c r="J55" s="40" t="s">
+      <c r="I55" s="1"/>
+      <c r="J55" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="K55" s="40" t="s">
+      <c r="K55" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="L55" s="40" t="s">
+      <c r="L55" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="M55" s="40" t="s">
+      <c r="M55" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="N55" s="40" t="s">
+      <c r="N55" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="O55" s="50" t="s">
+      <c r="O55" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="P55" s="40" t="s">
+      <c r="P55" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="Q55" s="40" t="s">
+      <c r="Q55" s="1" t="s">
         <v>142</v>
       </c>
       <c r="R55" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="S55" s="40" t="s">
+      <c r="S55" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="T55" s="40" t="s">
+      <c r="T55" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="U55" s="40" t="s">
+      <c r="U55" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="V55" s="40" t="s">
+      <c r="V55" s="1" t="s">
         <v>232</v>
       </c>
       <c r="W55" s="1" t="s">
@@ -10223,7 +10162,7 @@
       <c r="AC55" s="1"/>
     </row>
     <row r="56" spans="1:35" s="5" customFormat="1" ht="327" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="40" t="s">
+      <c r="A56" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -10297,15 +10236,15 @@
       <c r="AB56" s="1"/>
       <c r="AC56" s="1"/>
     </row>
-    <row r="57" spans="1:35" s="5" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:35" s="5" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>15</v>
@@ -10314,7 +10253,7 @@
         <v>58</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>5</v>
@@ -10323,40 +10262,40 @@
         <v>3</v>
       </c>
       <c r="I57" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="L57" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="J57" s="1" t="s">
+      <c r="M57" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="K57" s="1" t="s">
+      <c r="N57" s="1" t="s">
         <v>559</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="N57" s="1" t="s">
-        <v>562</v>
       </c>
       <c r="O57" s="1" t="s">
         <v>14</v>
       </c>
       <c r="P57" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="S57" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="T57" s="1" t="s">
         <v>563</v>
-      </c>
-      <c r="Q57" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="R57" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="S57" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="T57" s="1" t="s">
-        <v>566</v>
       </c>
       <c r="U57" s="1"/>
       <c r="V57" s="1"/>
@@ -10368,15 +10307,15 @@
       <c r="AB57" s="1"/>
       <c r="AC57" s="1"/>
     </row>
-    <row r="58" spans="1:35" s="5" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:35" s="5" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A58" s="29" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C58" s="29" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D58" s="29" t="s">
         <v>15</v>
@@ -10385,7 +10324,7 @@
         <v>58</v>
       </c>
       <c r="F58" s="29" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G58" s="29" t="s">
         <v>5</v>
@@ -10394,40 +10333,40 @@
         <v>2</v>
       </c>
       <c r="I58" s="32" t="s">
+        <v>566</v>
+      </c>
+      <c r="J58" s="29" t="s">
+        <v>555</v>
+      </c>
+      <c r="K58" s="29" t="s">
+        <v>567</v>
+      </c>
+      <c r="L58" s="29" t="s">
+        <v>568</v>
+      </c>
+      <c r="M58" s="29" t="s">
         <v>569</v>
       </c>
-      <c r="J58" s="29" t="s">
-        <v>558</v>
-      </c>
-      <c r="K58" s="29" t="s">
+      <c r="N58" s="29" t="s">
         <v>570</v>
-      </c>
-      <c r="L58" s="29" t="s">
-        <v>571</v>
-      </c>
-      <c r="M58" s="29" t="s">
-        <v>572</v>
-      </c>
-      <c r="N58" s="29" t="s">
-        <v>573</v>
       </c>
       <c r="O58" s="29" t="s">
         <v>14</v>
       </c>
       <c r="P58" s="29" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="Q58" s="29" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="R58" s="29" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="S58" s="29" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="T58" s="31" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="U58" s="30"/>
       <c r="V58" s="30"/>
@@ -10438,15 +10377,15 @@
       <c r="AA58" s="30"/>
       <c r="AB58" s="30"/>
     </row>
-    <row r="59" spans="1:35" s="5" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:35" s="5" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>15</v>
@@ -10464,22 +10403,22 @@
         <v>4</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="O59" s="1" t="s">
         <v>14</v>
@@ -10488,16 +10427,16 @@
         <v>332</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="S59" s="1" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="T59" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
@@ -10509,611 +10448,179 @@
       <c r="AB59" s="1"/>
     </row>
   </sheetData>
-  <dataValidations count="199">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12:E13 A12:A13 G12:H13 A28:A29 G28:H29 D28:E29 G44:H44 G32:H35 D32:E35 A32:A35 A44:A45 D47:E47 D46:E46 D44:E45 H47 H46 H45 A46 A47">
+  <dataValidations count="55">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12:E13 A12:A13 G12:H13 A28:A29 G28:H29 D28:E29 G44:H44 G32:H35 D32:E35 A32:A35 A44:A45 D47:E47 D46:E46 D44:E45 H47 H46 H45 A46 A47" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O55:O56 O28:O29 O44">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O55:O56 O28:O29 O44" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$O$59:$O$59</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28:B29 B32:B35 B12:B13 B44:B47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28:B29 B32:B35 B12:B13 B44:B47" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>$B$60:$B$7229</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20 H52 H50 H48 H55:H56 H18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H50 H48 H55:H56 H52:H53 G36 D36:E43 G39:H43 D4:E11 G2:H11 D55:E59 A57:A59 G49:H49 D49:E49 A48:A53 H18:H20 H36:H38 A36:A41 A6:A11 D20:E27 G21:H27 A21:A26 O31 D30:E31 A31 G30:H31 O43 A43 O17 D14:E18 A17 G14:H17 D2:E2" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B20 B55:B56">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B20 B55:B56" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>$B$65:$B$7336</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A18:A20 A55:A56">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A18:A20 A55:A56" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>$A$65:$A$75</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E20 E55:E56 E18">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20 D55:D56 D18">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>$B$65:$B$7335</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5" xr:uid="{00000000-0002-0000-0000-00000A000000}">
       <formula1>$A$65:$A$74</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{00000000-0002-0000-0000-00000F000000}">
       <formula1>$B$65:$B$7334</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-0000-000010000000}">
       <formula1>$A$65:$A$73</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{00000000-0002-0000-0000-000015000000}">
       <formula1>$B$65:$B$7333</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4" xr:uid="{00000000-0002-0000-0000-000016000000}">
       <formula1>$A$65:$A$72</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-0000-00001B000000}">
       <formula1>$B$65:$B$7332</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3" xr:uid="{00000000-0002-0000-0000-00001C000000}">
       <formula1>$A$65:$A$71</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H42">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42" xr:uid="{00000000-0002-0000-0000-00001F000000}">
       <formula1>$B$65:$B$7331</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A42" xr:uid="{00000000-0002-0000-0000-000020000000}">
       <formula1>$A$65:$A$70</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E42">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D42">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G42">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H30">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30" xr:uid="{00000000-0002-0000-0000-000025000000}">
       <formula1>$B$65:$B$7330</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A30" xr:uid="{00000000-0002-0000-0000-000026000000}">
       <formula1>$A$65:$A$69</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E30">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D30">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G30">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H14">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14" xr:uid="{00000000-0002-0000-0000-00002B000000}">
       <formula1>$B$65:$B$7329</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A14" xr:uid="{00000000-0002-0000-0000-00002C000000}">
       <formula1>$A$65:$A$68</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G14">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H27">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27" xr:uid="{00000000-0002-0000-0000-000031000000}">
       <formula1>$B$65:$B$7328</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A27" xr:uid="{00000000-0002-0000-0000-000032000000}">
       <formula1>$A$65:$A$67</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E27">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D27">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G27">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15" xr:uid="{00000000-0002-0000-0000-000037000000}">
       <formula1>$B$65:$B$7327</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A15" xr:uid="{00000000-0002-0000-0000-000038000000}">
       <formula1>$A$65:$A$66</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E15">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D15">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G15">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H16">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16" xr:uid="{00000000-0002-0000-0000-00003D000000}">
       <formula1>$B$65:$B$7326</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A16" xr:uid="{00000000-0002-0000-0000-00003E000000}">
       <formula1>$A$65:$A$65</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E16">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G16">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H17">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17" xr:uid="{00000000-0002-0000-0000-000043000000}">
       <formula1>$B$65:$B$7325</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A17">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E17">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O17">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G17">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H43">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43" xr:uid="{00000000-0002-0000-0000-00004A000000}">
       <formula1>$B$65:$B$7324</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A43">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E43">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D43">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O43">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G43">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H31">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31" xr:uid="{00000000-0002-0000-0000-000051000000}">
       <formula1>$B$65:$B$7323</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A31">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E31">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D31">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O31">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G31">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H23">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23" xr:uid="{00000000-0002-0000-0000-000058000000}">
       <formula1>$B$65:$B$7322</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A23">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E23">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D23">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G23">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H21">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21" xr:uid="{00000000-0002-0000-0000-00005E000000}">
       <formula1>$B$65:$B$7321</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A21">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E21">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G21">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H22">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22" xr:uid="{00000000-0002-0000-0000-000064000000}">
       <formula1>$B$65:$B$7320</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E22">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D22">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G22">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H26">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26" xr:uid="{00000000-0002-0000-0000-00006A000000}">
       <formula1>$B$65:$B$7319</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A26">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E26">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D26">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G26">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H24">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24" xr:uid="{00000000-0002-0000-0000-000070000000}">
       <formula1>$B$65:$B$7318</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A24">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E24">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D24">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G24">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H25">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25" xr:uid="{00000000-0002-0000-0000-000076000000}">
       <formula1>$B$65:$B$7317</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A25">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E25">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D25">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G25">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{00000000-0002-0000-0000-00007C000000}">
       <formula1>$B$65:$B$7316</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{00000000-0002-0000-0000-000082000000}">
       <formula1>$B$65:$B$7315</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{00000000-0002-0000-0000-000088000000}">
       <formula1>$B$65:$B$7314</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H41">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41" xr:uid="{00000000-0002-0000-0000-00008E000000}">
       <formula1>$B$65:$B$7313</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A41">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E41">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D41">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G41">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H39">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39" xr:uid="{00000000-0002-0000-0000-000094000000}">
       <formula1>$B$65:$B$7312</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A39">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E39">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D39">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G39">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H37">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37" xr:uid="{00000000-0002-0000-0000-00009A000000}">
       <formula1>$B$65:$B$7307</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A37">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E37">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D37">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H10 H19">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10" xr:uid="{00000000-0002-0000-0000-00009F000000}">
       <formula1>$B$65:$B$7305</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G10">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50" xr:uid="{00000000-0002-0000-0000-0000A4000000}">
       <formula1>$B$65:$B$7304</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A50">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B48">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B48" xr:uid="{00000000-0002-0000-0000-0000A6000000}">
       <formula1>$B$65:$B$7303</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A48">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B49">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B49" xr:uid="{00000000-0002-0000-0000-0000A8000000}">
       <formula1>$B$65:$B$7302</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A49">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E49">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D49">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G49">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53" xr:uid="{00000000-0002-0000-0000-0000AD000000}">
       <formula1>$B$65:$B$7301</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A53">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B51" xr:uid="{00000000-0002-0000-0000-0000AF000000}">
       <formula1>$B$65:$B$7300</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A51">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H57:H59">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H57:H59" xr:uid="{00000000-0002-0000-0000-0000B1000000}">
       <formula1>$H$64:$H$64</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B52 B57:B59">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B52 B57:B59" xr:uid="{00000000-0002-0000-0000-0000B2000000}">
       <formula1>$B$65:$B$7299</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A52 A57:A59">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E57:E59">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D57:D59">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G57:G59">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G57:G59" xr:uid="{00000000-0002-0000-0000-0000B6000000}">
       <formula1>$G$64:$G$64</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O57:O59">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O57:O59" xr:uid="{00000000-0002-0000-0000-0000B7000000}">
       <formula1>$O$63:$O$64</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54" xr:uid="{00000000-0002-0000-0000-0000B8000000}">
       <formula1>$B$64:$B$7298</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A54" xr:uid="{00000000-0002-0000-0000-0000B9000000}">
       <formula1>$A$64:$A$64</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9 H38 H11">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9 B38 B11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9 B38 B11" xr:uid="{00000000-0002-0000-0000-0000BB000000}">
       <formula1>$B$65:$B$7306</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9 A38 A11">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9 E38 E11">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9 D38 D11">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9 G11">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H36 H40">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36 B40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36 B40" xr:uid="{00000000-0002-0000-0000-0000C1000000}">
       <formula1>$B$65:$B$7311</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A36 A40">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E36 E40">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D36 D40">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G36 G40">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H49 H53">
-      <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="T2" r:id="rId1"/>
-    <hyperlink ref="T3" r:id="rId2"/>
-    <hyperlink ref="T5" r:id="rId3"/>
-    <hyperlink ref="S32" r:id="rId4" display="https://www.linkedin.com/learning-log-in/share?account=57692049&amp;forceAccount=false&amp;redirect=https%3A%2F%2Fwww.linkedin.com%2Flearning%2Fsales-closing-strate-gies%3Ftrk%3Dshare_ent_url%26shareId%3DFb%252BTSmWcSQyccPnDt1be6g%253D%253D"/>
-    <hyperlink ref="T32" r:id="rId5" display="https://www.linkedin.com/learning-log-in/share?account=57692049&amp;forceAccount=false&amp;redirect=https%3A%2F%2Fwww.linkedin.com%2Flearning%2Fsales-closing-strate-gies%3Ftrk%3Dshare_ent_url%26shareId%3DFb%252BTSmWcSQyccPnDt1be6g%253D%253D"/>
+    <hyperlink ref="T2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="T3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="T5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="S32" r:id="rId4" display="https://www.linkedin.com/learning-log-in/share?account=57692049&amp;forceAccount=false&amp;redirect=https%3A%2F%2Fwww.linkedin.com%2Flearning%2Fsales-closing-strate-gies%3Ftrk%3Dshare_ent_url%26shareId%3DFb%252BTSmWcSQyccPnDt1be6g%253D%253D" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="T32" r:id="rId5" display="https://www.linkedin.com/learning-log-in/share?account=57692049&amp;forceAccount=false&amp;redirect=https%3A%2F%2Fwww.linkedin.com%2Flearning%2Fsales-closing-strate-gies%3Ftrk%3Dshare_ent_url%26shareId%3DFb%252BTSmWcSQyccPnDt1be6g%253D%253D" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
